--- a/natmiOut/OldD2/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H2">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I2">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J2">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.3412883683139</v>
+        <v>62.7600095</v>
       </c>
       <c r="N2">
-        <v>62.3412883683139</v>
+        <v>125.520019</v>
       </c>
       <c r="O2">
-        <v>0.06435786775131175</v>
+        <v>0.06278706762865262</v>
       </c>
       <c r="P2">
-        <v>0.06435786775131175</v>
+        <v>0.04356338782330161</v>
       </c>
       <c r="Q2">
-        <v>75.70208883260868</v>
+        <v>78.08541805981133</v>
       </c>
       <c r="R2">
-        <v>75.70208883260868</v>
+        <v>468.512508358868</v>
       </c>
       <c r="S2">
-        <v>0.03918678044767959</v>
+        <v>0.03072777074433249</v>
       </c>
       <c r="T2">
-        <v>0.03918678044767959</v>
+        <v>0.02376118700726316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H3">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I3">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J3">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.4797846130917</v>
+        <v>76.25481166666667</v>
       </c>
       <c r="N3">
-        <v>71.4797846130917</v>
+        <v>228.764435</v>
       </c>
       <c r="O3">
-        <v>0.07379197070556187</v>
+        <v>0.07628768789662417</v>
       </c>
       <c r="P3">
-        <v>0.07379197070556187</v>
+        <v>0.07939573210296814</v>
       </c>
       <c r="Q3">
-        <v>86.79912055308642</v>
+        <v>94.87552496409111</v>
       </c>
       <c r="R3">
-        <v>86.79912055308642</v>
+        <v>853.8797246768199</v>
       </c>
       <c r="S3">
-        <v>0.04493109942694642</v>
+        <v>0.03733492696564336</v>
       </c>
       <c r="T3">
-        <v>0.04493109942694642</v>
+        <v>0.04330555845953064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H4">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I4">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J4">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>358.780984757876</v>
+        <v>371.029597</v>
       </c>
       <c r="N4">
-        <v>358.780984757876</v>
+        <v>1113.088791</v>
       </c>
       <c r="O4">
-        <v>0.3703866213401661</v>
+        <v>0.3711895613889402</v>
       </c>
       <c r="P4">
-        <v>0.3703866213401661</v>
+        <v>0.3863122318687898</v>
       </c>
       <c r="Q4">
-        <v>435.6738638304491</v>
+        <v>461.6315616444946</v>
       </c>
       <c r="R4">
-        <v>435.6738638304491</v>
+        <v>4154.684054800451</v>
       </c>
       <c r="S4">
-        <v>0.2255242399779333</v>
+        <v>0.1816588698250288</v>
       </c>
       <c r="T4">
-        <v>0.2255242399779333</v>
+        <v>0.2107099021283566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H5">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I5">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J5">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>372.24621099066</v>
+        <v>383.5038246666667</v>
       </c>
       <c r="N5">
-        <v>372.24621099066</v>
+        <v>1150.511474</v>
       </c>
       <c r="O5">
-        <v>0.3842874128029788</v>
+        <v>0.3836691671500295</v>
       </c>
       <c r="P5">
-        <v>0.3842874128029788</v>
+        <v>0.3993002704773363</v>
       </c>
       <c r="Q5">
-        <v>452.024917507798</v>
+        <v>477.1518792812365</v>
       </c>
       <c r="R5">
-        <v>452.024917507798</v>
+        <v>4294.366913531128</v>
       </c>
       <c r="S5">
-        <v>0.2339882752565278</v>
+        <v>0.1877663451267007</v>
       </c>
       <c r="T5">
-        <v>0.2339882752565278</v>
+        <v>0.2177940897835268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H6">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I6">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J6">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.5313909395832</v>
+        <v>51.39271299999999</v>
       </c>
       <c r="N6">
-        <v>49.5313909395832</v>
+        <v>154.178139</v>
       </c>
       <c r="O6">
-        <v>0.05113360328383013</v>
+        <v>0.05141487027262056</v>
       </c>
       <c r="P6">
-        <v>0.05113360328383013</v>
+        <v>0.05350956856636471</v>
       </c>
       <c r="Q6">
-        <v>60.1468120895752</v>
+        <v>63.94233384927866</v>
       </c>
       <c r="R6">
-        <v>60.1468120895752</v>
+        <v>575.481004643508</v>
       </c>
       <c r="S6">
-        <v>0.03113467483299831</v>
+        <v>0.02516225723313945</v>
       </c>
       <c r="T6">
-        <v>0.03113467483299831</v>
+        <v>0.02918622561083912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H7">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I7">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J7">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.28649641274</v>
+        <v>54.62809350000001</v>
       </c>
       <c r="N7">
-        <v>54.28649641274</v>
+        <v>109.256187</v>
       </c>
       <c r="O7">
-        <v>0.0560425241161514</v>
+        <v>0.05465164566313296</v>
       </c>
       <c r="P7">
-        <v>0.0560425241161514</v>
+        <v>0.03791880916123956</v>
       </c>
       <c r="Q7">
-        <v>65.9210176980737</v>
+        <v>67.96776407049401</v>
       </c>
       <c r="R7">
-        <v>65.9210176980737</v>
+        <v>407.806584422964</v>
       </c>
       <c r="S7">
-        <v>0.03412366141090267</v>
+        <v>0.02674632376000452</v>
       </c>
       <c r="T7">
-        <v>0.03412366141090267</v>
+        <v>0.02068241155227609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H8">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I8">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J8">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.3412883683139</v>
+        <v>62.7600095</v>
       </c>
       <c r="N8">
-        <v>62.3412883683139</v>
+        <v>125.520019</v>
       </c>
       <c r="O8">
-        <v>0.06435786775131175</v>
+        <v>0.06278706762865262</v>
       </c>
       <c r="P8">
-        <v>0.06435786775131175</v>
+        <v>0.04356338782330161</v>
       </c>
       <c r="Q8">
-        <v>48.62619141720642</v>
+        <v>15.547662673454</v>
       </c>
       <c r="R8">
-        <v>48.62619141720642</v>
+        <v>93.28597604072399</v>
       </c>
       <c r="S8">
-        <v>0.02517108730363215</v>
+        <v>0.006118235979401048</v>
       </c>
       <c r="T8">
-        <v>0.02517108730363215</v>
+        <v>0.004731112792747186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H9">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I9">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J9">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.4797846130917</v>
+        <v>76.25481166666667</v>
       </c>
       <c r="N9">
-        <v>71.4797846130917</v>
+        <v>228.764435</v>
       </c>
       <c r="O9">
-        <v>0.07379197070556187</v>
+        <v>0.07628768789662417</v>
       </c>
       <c r="P9">
-        <v>0.07379197070556187</v>
+        <v>0.07939573210296814</v>
       </c>
       <c r="Q9">
-        <v>55.75421650771525</v>
+        <v>18.89075700380667</v>
       </c>
       <c r="R9">
-        <v>55.75421650771525</v>
+        <v>170.01681303426</v>
       </c>
       <c r="S9">
-        <v>0.02886087127861544</v>
+        <v>0.00743379320778227</v>
       </c>
       <c r="T9">
-        <v>0.02886087127861544</v>
+        <v>0.008622611385631499</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H10">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I10">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J10">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>358.780984757876</v>
+        <v>371.029597</v>
       </c>
       <c r="N10">
-        <v>358.780984757876</v>
+        <v>1113.088791</v>
       </c>
       <c r="O10">
-        <v>0.3703866213401661</v>
+        <v>0.3711895613889402</v>
       </c>
       <c r="P10">
-        <v>0.3703866213401661</v>
+        <v>0.3863122318687898</v>
       </c>
       <c r="Q10">
-        <v>279.8490903591531</v>
+        <v>91.91590412400399</v>
       </c>
       <c r="R10">
-        <v>279.8490903591531</v>
+        <v>827.2431371160359</v>
       </c>
       <c r="S10">
-        <v>0.1448623813622328</v>
+        <v>0.03617027224618363</v>
       </c>
       <c r="T10">
-        <v>0.1448623813622328</v>
+        <v>0.04195465122231697</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H11">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I11">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J11">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>372.24621099066</v>
+        <v>383.5038246666667</v>
       </c>
       <c r="N11">
-        <v>372.24621099066</v>
+        <v>1150.511474</v>
       </c>
       <c r="O11">
-        <v>0.3842874128029788</v>
+        <v>0.3836691671500295</v>
       </c>
       <c r="P11">
-        <v>0.3842874128029788</v>
+        <v>0.3993002704773363</v>
       </c>
       <c r="Q11">
-        <v>290.3519639026544</v>
+        <v>95.00616949232267</v>
       </c>
       <c r="R11">
-        <v>290.3519639026544</v>
+        <v>855.055525430904</v>
       </c>
       <c r="S11">
-        <v>0.150299137546451</v>
+        <v>0.03738633752618395</v>
       </c>
       <c r="T11">
-        <v>0.150299137546451</v>
+        <v>0.04336519063818674</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H12">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I12">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J12">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.5313909395832</v>
+        <v>51.39271299999999</v>
       </c>
       <c r="N12">
-        <v>49.5313909395832</v>
+        <v>154.178139</v>
       </c>
       <c r="O12">
-        <v>0.05113360328383013</v>
+        <v>0.05141487027262056</v>
       </c>
       <c r="P12">
-        <v>0.05113360328383013</v>
+        <v>0.05350956856636471</v>
       </c>
       <c r="Q12">
-        <v>38.63447419884945</v>
+        <v>12.731619576916</v>
       </c>
       <c r="R12">
-        <v>38.63447419884945</v>
+        <v>114.584576192244</v>
       </c>
       <c r="S12">
-        <v>0.01999892845083182</v>
+        <v>0.005010081232630022</v>
       </c>
       <c r="T12">
-        <v>0.01999892845083182</v>
+        <v>0.005811297445587972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.247732</v>
+      </c>
+      <c r="H13">
+        <v>0.743196</v>
+      </c>
+      <c r="I13">
+        <v>0.09744420643414499</v>
+      </c>
+      <c r="J13">
+        <v>0.1086029583359576</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>54.62809350000001</v>
+      </c>
+      <c r="N13">
+        <v>109.256187</v>
+      </c>
+      <c r="O13">
+        <v>0.05465164566313296</v>
+      </c>
+      <c r="P13">
+        <v>0.03791880916123956</v>
+      </c>
+      <c r="Q13">
+        <v>13.533126858942</v>
+      </c>
+      <c r="R13">
+        <v>81.198761153652</v>
+      </c>
+      <c r="S13">
+        <v>0.005325486241964073</v>
+      </c>
+      <c r="T13">
+        <v>0.004118094851487226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.216926</v>
+      </c>
+      <c r="H14">
+        <v>0.650778</v>
+      </c>
+      <c r="I14">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J14">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>62.7600095</v>
+      </c>
+      <c r="N14">
+        <v>125.520019</v>
+      </c>
+      <c r="O14">
+        <v>0.06278706762865262</v>
+      </c>
+      <c r="P14">
+        <v>0.04356338782330161</v>
+      </c>
+      <c r="Q14">
+        <v>13.614277820797</v>
+      </c>
+      <c r="R14">
+        <v>81.685666924782</v>
+      </c>
+      <c r="S14">
+        <v>0.005357420349682526</v>
+      </c>
+      <c r="T14">
+        <v>0.004142788875395493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.216926</v>
+      </c>
+      <c r="H15">
+        <v>0.650778</v>
+      </c>
+      <c r="I15">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J15">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>76.25481166666667</v>
+      </c>
+      <c r="N15">
+        <v>228.764435</v>
+      </c>
+      <c r="O15">
+        <v>0.07628768789662417</v>
+      </c>
+      <c r="P15">
+        <v>0.07939573210296814</v>
+      </c>
+      <c r="Q15">
+        <v>16.54165127560333</v>
+      </c>
+      <c r="R15">
+        <v>148.87486148043</v>
+      </c>
+      <c r="S15">
+        <v>0.006509385244503643</v>
+      </c>
+      <c r="T15">
+        <v>0.007550371358724342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.216926</v>
+      </c>
+      <c r="H16">
+        <v>0.650778</v>
+      </c>
+      <c r="I16">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J16">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>371.029597</v>
+      </c>
+      <c r="N16">
+        <v>1113.088791</v>
+      </c>
+      <c r="O16">
+        <v>0.3711895613889402</v>
+      </c>
+      <c r="P16">
+        <v>0.3863122318687898</v>
+      </c>
+      <c r="Q16">
+        <v>80.48596635882198</v>
+      </c>
+      <c r="R16">
+        <v>724.3736972293979</v>
+      </c>
+      <c r="S16">
+        <v>0.03167242212259873</v>
+      </c>
+      <c r="T16">
+        <v>0.03673750129596633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.216926</v>
+      </c>
+      <c r="H17">
+        <v>0.650778</v>
+      </c>
+      <c r="I17">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J17">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>383.5038246666667</v>
+      </c>
+      <c r="N17">
+        <v>1150.511474</v>
+      </c>
+      <c r="O17">
+        <v>0.3836691671500295</v>
+      </c>
+      <c r="P17">
+        <v>0.3993002704773363</v>
+      </c>
+      <c r="Q17">
+        <v>83.19195066964134</v>
+      </c>
+      <c r="R17">
+        <v>748.727556026772</v>
+      </c>
+      <c r="S17">
+        <v>0.03273726710398729</v>
+      </c>
+      <c r="T17">
+        <v>0.03797263714166639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.216926</v>
+      </c>
+      <c r="H18">
+        <v>0.650778</v>
+      </c>
+      <c r="I18">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J18">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.39271299999999</v>
+      </c>
+      <c r="N18">
+        <v>154.178139</v>
+      </c>
+      <c r="O18">
+        <v>0.05141487027262056</v>
+      </c>
+      <c r="P18">
+        <v>0.05350956856636471</v>
+      </c>
+      <c r="Q18">
+        <v>11.148415660238</v>
+      </c>
+      <c r="R18">
+        <v>100.335740942142</v>
+      </c>
+      <c r="S18">
+        <v>0.004387066997680962</v>
+      </c>
+      <c r="T18">
+        <v>0.005088650274012306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.216926</v>
+      </c>
+      <c r="H19">
+        <v>0.650778</v>
+      </c>
+      <c r="I19">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J19">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.62809350000001</v>
+      </c>
+      <c r="N19">
+        <v>109.256187</v>
+      </c>
+      <c r="O19">
+        <v>0.05465164566313296</v>
+      </c>
+      <c r="P19">
+        <v>0.03791880916123956</v>
+      </c>
+      <c r="Q19">
+        <v>11.850253810581</v>
+      </c>
+      <c r="R19">
+        <v>71.10152286348601</v>
+      </c>
+      <c r="S19">
+        <v>0.004663250724671412</v>
+      </c>
+      <c r="T19">
+        <v>0.003606001016234149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.149396</v>
+      </c>
+      <c r="I20">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J20">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.7600095</v>
+      </c>
+      <c r="N20">
+        <v>125.520019</v>
+      </c>
+      <c r="O20">
+        <v>0.06278706762865262</v>
+      </c>
+      <c r="P20">
+        <v>0.04356338782330161</v>
+      </c>
+      <c r="Q20">
+        <v>3.125364793087333</v>
+      </c>
+      <c r="R20">
+        <v>18.752188758524</v>
+      </c>
+      <c r="S20">
+        <v>0.001229877424499861</v>
+      </c>
+      <c r="T20">
+        <v>0.0009510402730709783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.149396</v>
+      </c>
+      <c r="I21">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J21">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>76.25481166666667</v>
+      </c>
+      <c r="N21">
+        <v>228.764435</v>
+      </c>
+      <c r="O21">
+        <v>0.07628768789662417</v>
+      </c>
+      <c r="P21">
+        <v>0.07939573210296814</v>
+      </c>
+      <c r="Q21">
+        <v>3.797387947917778</v>
+      </c>
+      <c r="R21">
+        <v>34.17649153126</v>
+      </c>
+      <c r="S21">
+        <v>0.001494328508320604</v>
+      </c>
+      <c r="T21">
+        <v>0.001733302723060678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.779999783288431</v>
-      </c>
-      <c r="H13">
-        <v>0.779999783288431</v>
-      </c>
-      <c r="I13">
-        <v>0.3911112686470119</v>
-      </c>
-      <c r="J13">
-        <v>0.3911112686470119</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>54.28649641274</v>
-      </c>
-      <c r="N13">
-        <v>54.28649641274</v>
-      </c>
-      <c r="O13">
-        <v>0.0560425241161514</v>
-      </c>
-      <c r="P13">
-        <v>0.0560425241161514</v>
-      </c>
-      <c r="Q13">
-        <v>42.34345543742539</v>
-      </c>
-      <c r="R13">
-        <v>42.34345543742539</v>
-      </c>
-      <c r="S13">
-        <v>0.02191886270524874</v>
-      </c>
-      <c r="T13">
-        <v>0.02191886270524874</v>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.149396</v>
+      </c>
+      <c r="I22">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J22">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>371.029597</v>
+      </c>
+      <c r="N22">
+        <v>1113.088791</v>
+      </c>
+      <c r="O22">
+        <v>0.3711895613889402</v>
+      </c>
+      <c r="P22">
+        <v>0.3863122318687898</v>
+      </c>
+      <c r="Q22">
+        <v>18.47677922447066</v>
+      </c>
+      <c r="R22">
+        <v>166.291013020236</v>
+      </c>
+      <c r="S22">
+        <v>0.007270886808447366</v>
+      </c>
+      <c r="T22">
+        <v>0.008433652864129067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.149396</v>
+      </c>
+      <c r="I23">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J23">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>383.5038246666667</v>
+      </c>
+      <c r="N23">
+        <v>1150.511474</v>
+      </c>
+      <c r="O23">
+        <v>0.3836691671500295</v>
+      </c>
+      <c r="P23">
+        <v>0.3993002704773363</v>
+      </c>
+      <c r="Q23">
+        <v>19.09797912996711</v>
+      </c>
+      <c r="R23">
+        <v>171.881812169704</v>
+      </c>
+      <c r="S23">
+        <v>0.007515338189470581</v>
+      </c>
+      <c r="T23">
+        <v>0.008717197106258037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.149396</v>
+      </c>
+      <c r="I24">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J24">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>51.39271299999999</v>
+      </c>
+      <c r="N24">
+        <v>154.178139</v>
+      </c>
+      <c r="O24">
+        <v>0.05141487027262056</v>
+      </c>
+      <c r="P24">
+        <v>0.05350956856636471</v>
+      </c>
+      <c r="Q24">
+        <v>2.559288583782666</v>
+      </c>
+      <c r="R24">
+        <v>23.033597254044</v>
+      </c>
+      <c r="S24">
+        <v>0.001007118035928604</v>
+      </c>
+      <c r="T24">
+        <v>0.001168177160777319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.149396</v>
+      </c>
+      <c r="I25">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J25">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>54.62809350000001</v>
+      </c>
+      <c r="N25">
+        <v>109.256187</v>
+      </c>
+      <c r="O25">
+        <v>0.05465164566313296</v>
+      </c>
+      <c r="P25">
+        <v>0.03791880916123956</v>
+      </c>
+      <c r="Q25">
+        <v>2.720406218842</v>
+      </c>
+      <c r="R25">
+        <v>16.322437313052</v>
+      </c>
+      <c r="S25">
+        <v>0.001070520216207386</v>
+      </c>
+      <c r="T25">
+        <v>0.0008278124457515726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7836485</v>
+      </c>
+      <c r="H26">
+        <v>1.567297</v>
+      </c>
+      <c r="I26">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J26">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>62.7600095</v>
+      </c>
+      <c r="N26">
+        <v>125.520019</v>
+      </c>
+      <c r="O26">
+        <v>0.06278706762865262</v>
+      </c>
+      <c r="P26">
+        <v>0.04356338782330161</v>
+      </c>
+      <c r="Q26">
+        <v>49.18178730466075</v>
+      </c>
+      <c r="R26">
+        <v>196.727149218643</v>
+      </c>
+      <c r="S26">
+        <v>0.01935376313073669</v>
+      </c>
+      <c r="T26">
+        <v>0.009977258874824793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7836485</v>
+      </c>
+      <c r="H27">
+        <v>1.567297</v>
+      </c>
+      <c r="I27">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J27">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>76.25481166666667</v>
+      </c>
+      <c r="N27">
+        <v>228.764435</v>
+      </c>
+      <c r="O27">
+        <v>0.07628768789662417</v>
+      </c>
+      <c r="P27">
+        <v>0.07939573210296814</v>
+      </c>
+      <c r="Q27">
+        <v>59.75696878036583</v>
+      </c>
+      <c r="R27">
+        <v>358.541812682195</v>
+      </c>
+      <c r="S27">
+        <v>0.02351525397037429</v>
+      </c>
+      <c r="T27">
+        <v>0.01818388817602098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7836485</v>
+      </c>
+      <c r="H28">
+        <v>1.567297</v>
+      </c>
+      <c r="I28">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J28">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>371.029597</v>
+      </c>
+      <c r="N28">
+        <v>1113.088791</v>
+      </c>
+      <c r="O28">
+        <v>0.3711895613889402</v>
+      </c>
+      <c r="P28">
+        <v>0.3863122318687898</v>
+      </c>
+      <c r="Q28">
+        <v>290.7567871446545</v>
+      </c>
+      <c r="R28">
+        <v>1744.540722867927</v>
+      </c>
+      <c r="S28">
+        <v>0.1144171103866817</v>
+      </c>
+      <c r="T28">
+        <v>0.08847652435802092</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7836485</v>
+      </c>
+      <c r="H29">
+        <v>1.567297</v>
+      </c>
+      <c r="I29">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J29">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>383.5038246666667</v>
+      </c>
+      <c r="N29">
+        <v>1150.511474</v>
+      </c>
+      <c r="O29">
+        <v>0.3836691671500295</v>
+      </c>
+      <c r="P29">
+        <v>0.3993002704773363</v>
+      </c>
+      <c r="Q29">
+        <v>300.5321969442963</v>
+      </c>
+      <c r="R29">
+        <v>1803.193181665778</v>
+      </c>
+      <c r="S29">
+        <v>0.1182638792036869</v>
+      </c>
+      <c r="T29">
+        <v>0.09145115580769833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7836485</v>
+      </c>
+      <c r="H30">
+        <v>1.567297</v>
+      </c>
+      <c r="I30">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J30">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>51.39271299999999</v>
+      </c>
+      <c r="N30">
+        <v>154.178139</v>
+      </c>
+      <c r="O30">
+        <v>0.05141487027262056</v>
+      </c>
+      <c r="P30">
+        <v>0.05350956856636471</v>
+      </c>
+      <c r="Q30">
+        <v>40.2738224533805</v>
+      </c>
+      <c r="R30">
+        <v>241.642934720283</v>
+      </c>
+      <c r="S30">
+        <v>0.01584834677324152</v>
+      </c>
+      <c r="T30">
+        <v>0.012255218075148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7836485</v>
+      </c>
+      <c r="H31">
+        <v>1.567297</v>
+      </c>
+      <c r="I31">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J31">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>54.62809350000001</v>
+      </c>
+      <c r="N31">
+        <v>109.256187</v>
+      </c>
+      <c r="O31">
+        <v>0.05465164566313296</v>
+      </c>
+      <c r="P31">
+        <v>0.03791880916123956</v>
+      </c>
+      <c r="Q31">
+        <v>42.80922352913475</v>
+      </c>
+      <c r="R31">
+        <v>171.236894116539</v>
+      </c>
+      <c r="S31">
+        <v>0.01684606472028556</v>
+      </c>
+      <c r="T31">
+        <v>0.008684489295490525</v>
       </c>
     </row>
   </sheetData>
